--- a/spliced/falling/2023-03-25_17-58-38/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-38/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.0599948167800903</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0730371475219726</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.515730261802673</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.252272367477417</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-38/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-38/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.078746795654297</v>
+        <v>-1.181560516357422</v>
       </c>
       <c r="B2" t="n">
-        <v>1.204861640930176</v>
+        <v>1.240549564361572</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6440812349319458</v>
+        <v>-0.5883253216743469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.571155071258545</v>
+        <v>-1.229650020599365</v>
       </c>
       <c r="B3" t="n">
-        <v>1.288459777832031</v>
+        <v>1.595798969268799</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5561246871948242</v>
+        <v>-0.7779194116592407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.56222677230835</v>
+        <v>-0.2790107727050781</v>
       </c>
       <c r="B4" t="n">
-        <v>1.121483325958252</v>
+        <v>1.227867126464844</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1114475727081298</v>
+        <v>-1.016065120697022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.141444206237793</v>
+        <v>-1.14784574508667</v>
       </c>
       <c r="B5" t="n">
-        <v>1.122160911560059</v>
+        <v>1.330484867095947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2474624365568161</v>
+        <v>-0.8695551156997681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.447634696960449</v>
+        <v>-1.288122177124023</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8090605735778809</v>
+        <v>1.133394718170166</v>
       </c>
       <c r="C6" t="n">
-        <v>2.089949369430542</v>
+        <v>-0.7701815962791443</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.48740816116333</v>
+        <v>-1.425555229187011</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6178178787231445</v>
+        <v>1.231297016143799</v>
       </c>
       <c r="C7" t="n">
-        <v>2.327399969100952</v>
+        <v>-0.6422767043113708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.30517578125</v>
+        <v>-1.529905319213867</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4891290664672851</v>
+        <v>1.149116039276123</v>
       </c>
       <c r="C8" t="n">
-        <v>2.537726402282715</v>
+        <v>-0.9077204465866088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.007162570953369</v>
+        <v>-1.152251720428467</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.502803325653076</v>
+        <v>1.056320667266846</v>
       </c>
       <c r="C9" t="n">
-        <v>3.441044807434082</v>
+        <v>-0.8245069980621338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.378014087677002</v>
+        <v>-1.123115062713623</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.04712963104248</v>
+        <v>1.085736274719239</v>
       </c>
       <c r="C10" t="n">
-        <v>5.235954284667969</v>
+        <v>-0.7493376731872559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-6.576094627380371</v>
+        <v>-1.394256114959717</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4697372913360595</v>
+        <v>1.270269870758057</v>
       </c>
       <c r="C11" t="n">
-        <v>2.406523942947388</v>
+        <v>-0.8571128845214844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.52888298034668</v>
+        <v>-1.345842838287354</v>
       </c>
       <c r="B12" t="n">
-        <v>7.144853115081787</v>
+        <v>1.367433071136475</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.8126277923584</v>
+        <v>-0.7304041385650635</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-10.79609775543213</v>
+        <v>-1.356554985046387</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.548766374588013</v>
+        <v>1.367568492889404</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7228314876556396</v>
+        <v>-0.6971900463104248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0029077529907226</v>
+        <v>-1.285661697387695</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2878659963607788</v>
+        <v>1.301629066467285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002394676208496</v>
+        <v>-0.5075737237930298</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.11443567276001</v>
+        <v>-1.321344375610352</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3510211706161499</v>
+        <v>1.155209541320801</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4145855903625488</v>
+        <v>-0.5763433575630188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.77131175994873</v>
+        <v>-1.26480770111084</v>
       </c>
       <c r="B16" t="n">
-        <v>1.03003716468811</v>
+        <v>1.153616428375244</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.024044990539551</v>
+        <v>-0.6878960132598877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.573332786560059</v>
+        <v>-0.8195595741271973</v>
       </c>
       <c r="B17" t="n">
-        <v>3.554859638214112</v>
+        <v>1.118548393249511</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6985998153686523</v>
+        <v>-0.9026113748550416</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3884191513061523</v>
+        <v>-1.078746795654297</v>
       </c>
       <c r="B18" t="n">
-        <v>2.177812099456787</v>
+        <v>1.204861640930176</v>
       </c>
       <c r="C18" t="n">
-        <v>1.914549231529236</v>
+        <v>-0.6440812349319458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3063011169433594</v>
+        <v>-1.571155071258545</v>
       </c>
       <c r="B19" t="n">
-        <v>1.13384485244751</v>
+        <v>1.288459777832031</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.188247680664062</v>
+        <v>-0.5561246871948242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.002084732055664</v>
+        <v>-1.56222677230835</v>
       </c>
       <c r="B20" t="n">
-        <v>2.598645210266113</v>
+        <v>1.121483325958252</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.077527165412903</v>
+        <v>-0.1114475727081298</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.68853759765625</v>
+        <v>-1.141444206237793</v>
       </c>
       <c r="B21" t="n">
-        <v>1.860642552375793</v>
+        <v>1.122160911560059</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0599948167800903</v>
+        <v>0.2474624365568161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.447634696960449</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8090605735778809</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.089949369430542</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.48740816116333</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.6178178787231445</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.327399969100952</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.30517578125</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.4891290664672851</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.537726402282715</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.007162570953369</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.502803325653076</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.441044807434082</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.378014087677002</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.04712963104248</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.235954284667969</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-6.576094627380371</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4697372913360595</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.406523942947388</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8.52888298034668</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.144853115081787</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-10.8126277923584</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-10.79609775543213</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.548766374588013</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.7228314876556396</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0029077529907226</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2878659963607788</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.002394676208496</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.11443567276001</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3510211706161499</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4145855903625488</v>
       </c>
     </row>
   </sheetData>
